--- a/biology/Histoire de la zoologie et de la botanique/Jean_Lemire_(biologiste)/Jean_Lemire_(biologiste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean_Lemire_(biologiste)/Jean_Lemire_(biologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Lemire est un cinéaste québécois avec un fort intérêt pour la biologie et l'océanographie. Il fut chef des expéditions Mission Arctique (2002), Mission Baleines (2003), Mission Antarctique (2005-2006) et la mission 1000 jours pour la planète (2012-2016), toutes réalisées à bord du voilier Sedna IV.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Biologiste de formation [réf. souhaitée], Jean Lemire entame une carrière parallèle en cinéma en 1987 pour conjuguer ses passions pour la recherche et la communication scientifique. En 2001, il transforme un grand voilier océanographique en plateforme de recherche scientifique et studio de production. Il sillonne depuis les océans de la planète pour sensibiliser les populations aux grands enjeux environnementaux. 
 Ses travaux sur les changements climatiques et la biodiversité ont initié de grandes missions scientifiques. Avec son équipe de marins et de scientifiques, ils franchissent le légendaire passage du Nord-Ouest en 2002 (Mission Arctique), hivernent en Antarctique en 2005-2006 durant une mission de 430 jours (Mission Antarctique), et entreprennent en 2012 la série 1000 jours pour la planète, un tour du monde sur trois ans, pour traiter de l’état de la biodiversité mondiale, en collaboration avec le Secrétariat de la Convention sur la Diversité Biologique de l’ONU.
